--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_4_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_4_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1154951.956707123</v>
+        <v>-1156932.873287548</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2630451.066553587</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14755729.43696493</v>
+        <v>14764178.64187869</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>306.7519147762642</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>142.6624555512285</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>19.85889072024104</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>83.73387003146748</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>27.73367612861988</v>
       </c>
       <c r="G5" t="n">
-        <v>74.24596078692663</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>31.95923238333539</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>91.82580793753537</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>25.36135220843585</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>36.2593956996788</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>144.0731271501069</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>135.0393428231426</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>276.2330889766187</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051979</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>22.42123215846198</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>76.56542964295153</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>132.2596344579104</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151919</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>116.9394341316966</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>227.2924839788677</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>129.7991263300496</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185877</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2649,10 +2649,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,19 +2713,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>58.92732804414754</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,16 +2770,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.69520250663313</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700705</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965503</v>
+        <v>21.3928440046448</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801184</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437392</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.710571738979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571487</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523546</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>149.7594527869443</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.03409577002</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604798</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274051</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3834,10 +3834,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014432</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522968</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898731</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857183</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692865</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329072</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373707</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789557</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463138</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941875</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069505</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224543</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145478</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>907.0907985422225</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="C2" t="n">
-        <v>538.1282816018108</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D2" t="n">
-        <v>538.1282816018108</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E2" t="n">
-        <v>538.1282816018108</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>531.1827808526074</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>517.2593767911983</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2321.839423407099</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>1969.070768136985</v>
       </c>
       <c r="X2" t="n">
-        <v>1683.829970582156</v>
+        <v>1595.605009875905</v>
       </c>
       <c r="Y2" t="n">
-        <v>1293.690638606344</v>
+        <v>1205.465677900094</v>
       </c>
     </row>
     <row r="3">
@@ -4398,40 +4398,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.6913543878343</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>269.7756312415669</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>119.6589918292312</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X4" t="n">
-        <v>614.1323983616041</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y4" t="n">
-        <v>393.339819218074</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035247</v>
+        <v>1408.137349737077</v>
       </c>
       <c r="C5" t="n">
-        <v>494.150101163113</v>
+        <v>1039.174832796665</v>
       </c>
       <c r="D5" t="n">
-        <v>135.8844025563625</v>
+        <v>1039.174832796665</v>
       </c>
       <c r="E5" t="n">
-        <v>135.8844025563625</v>
+        <v>653.3865801984211</v>
       </c>
       <c r="F5" t="n">
-        <v>128.938901807159</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2168.202948062279</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1794.737189801199</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1794.737189801199</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,19 +4647,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598709</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.6911546495019</v>
+        <v>131.8815591656901</v>
       </c>
       <c r="C7" t="n">
-        <v>380.6911546495019</v>
+        <v>131.8815591656901</v>
       </c>
       <c r="D7" t="n">
-        <v>380.6911546495019</v>
+        <v>131.8815591656901</v>
       </c>
       <c r="E7" t="n">
-        <v>380.6911546495019</v>
+        <v>131.8815591656901</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>131.8815591656901</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>131.8815591656901</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>131.8815591656901</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036446</v>
@@ -4732,7 +4732,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005477</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005477</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="X7" t="n">
-        <v>380.6911546495019</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.6911546495019</v>
+        <v>131.8815591656901</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2440.325386379618</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520779</v>
+        <v>2186.563601017709</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520779</v>
+        <v>2186.563601017709</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520779</v>
+        <v>2186.563601017709</v>
       </c>
       <c r="X8" t="n">
-        <v>2386.860082298881</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y8" t="n">
-        <v>1996.720750323069</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4881,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.0202652891861</v>
+        <v>361.80799380017</v>
       </c>
       <c r="C10" t="n">
-        <v>348.0202652891861</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D10" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>348.0202652891861</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.0202652891861</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="11">
@@ -5030,13 +5030,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5121,22 +5121,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
         <v>97.21709146028584</v>
@@ -5182,25 +5182,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799364</v>
@@ -5218,31 +5218,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1219.892948359297</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>965.2084601534106</v>
+        <v>955.1031435655739</v>
       </c>
       <c r="W13" t="n">
-        <v>675.79129011645</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>447.8017392184324</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.8017392184324</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="14">
@@ -5255,34 +5255,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822455</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5358,19 +5358,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.0220331715245</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>565.0858502436176</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>542.4381409926459</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102528</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,7 +5440,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5455,31 +5455,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1421.577452736738</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1421.577452736738</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1132.448813950296</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>877.7643257444089</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150547</v>
+        <v>877.7643257444089</v>
       </c>
       <c r="X16" t="n">
-        <v>954.8146123150547</v>
+        <v>649.7747748463916</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.0220331715245</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5601,7 +5601,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5610,7 +5610,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>692.753134944335</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5680,16 +5680,16 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1365.320680196377</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1141.535264985882</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1141.535264985882</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>1141.535264985882</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>1141.535264985882</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>913.545714087865</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>692.7531349443349</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,34 +5735,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5777,22 +5777,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,16 +5829,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>412.2823606383756</v>
+        <v>534.3905543375957</v>
       </c>
       <c r="C22" t="n">
-        <v>412.2823606383756</v>
+        <v>365.4543714096889</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>215.3377319973531</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5911,10 +5911,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473454</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>1044.311772267567</v>
+        <v>755.1831334811259</v>
       </c>
       <c r="W22" t="n">
-        <v>814.7234046121455</v>
+        <v>755.1831334811259</v>
       </c>
       <c r="X22" t="n">
-        <v>814.7234046121455</v>
+        <v>755.1831334811259</v>
       </c>
       <c r="Y22" t="n">
-        <v>593.9308254686154</v>
+        <v>534.3905543375957</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,16 +6066,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>545.1765965867975</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>376.2404136588906</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>376.2404136588906</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>228.3273200764975</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>228.3273200764975</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6145,22 +6145,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150545</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X25" t="n">
-        <v>726.8250614170372</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>726.8250614170372</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6212,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515102</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.345128735815</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126479</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571601</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636234</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643584</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307616</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526312</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060425</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6339,7 +6339,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>245.130185042679</v>
+        <v>475.7924673804756</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>306.8562844525687</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>156.739645040233</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>156.739645040233</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>156.739645040233</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028587</v>
@@ -6382,52 +6382,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799355</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471178</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980061</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473452</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262958</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765156</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706287</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W28" t="n">
-        <v>473.1197359406963</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X28" t="n">
-        <v>245.130185042679</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y28" t="n">
-        <v>245.130185042679</v>
+        <v>475.7924673804756</v>
       </c>
     </row>
     <row r="29">
@@ -6452,22 +6452,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6482,7 +6482,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>600.4439501541561</v>
+        <v>494.846668111023</v>
       </c>
       <c r="C31" t="n">
-        <v>487.2686325076203</v>
+        <v>381.671350464487</v>
       </c>
       <c r="D31" t="n">
-        <v>392.9128583766556</v>
+        <v>360.0624171264619</v>
       </c>
       <c r="E31" t="n">
-        <v>300.7606300756335</v>
+        <v>360.0624171264619</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590942</v>
+        <v>360.0624171264619</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864675</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933507</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667516</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962062</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021649</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899273</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1880.811824899273</v>
+        <v>1791.966918252998</v>
       </c>
       <c r="T31" t="n">
-        <v>1729.539650367006</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1496.171876861936</v>
+        <v>1390.574594818804</v>
       </c>
       <c r="V31" t="n">
-        <v>1297.24825393742</v>
+        <v>1191.650971894288</v>
       </c>
       <c r="W31" t="n">
-        <v>1063.59194918183</v>
+        <v>957.9946671386977</v>
       </c>
       <c r="X31" t="n">
-        <v>891.3632635651836</v>
+        <v>785.7659815220512</v>
       </c>
       <c r="Y31" t="n">
-        <v>726.3315497030246</v>
+        <v>620.7342676598919</v>
       </c>
     </row>
     <row r="32">
@@ -6686,43 +6686,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6920,49 +6920,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7020,16 +7020,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7111,13 +7111,13 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7166,58 +7166,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649688</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860495</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025261</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7397,49 +7397,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7473,37 +7473,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571617</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636264</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643589</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307622</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.91651652632</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649698</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184158</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384658</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986525</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942118</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771665</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025264</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859418</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045218</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010326</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2375.872413702068</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2006.909896761656</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.644198154905</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.855945556661</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>851.8700407670534</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>436.7975906120499</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>139.2139902208171</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>453.5018714396643</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>1108.225203574964</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1559.259416823373</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2092.791321495297</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>2639.57013855408</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3483.798167244623</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4197.153254691569</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4655.631457200557</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4779.707779431612</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4669.417110958707</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4463.439363342929</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.908886616766</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3878.845999273196</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3526.077344003081</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3152.611585742001</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.47225376619</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>972.2488295092107</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>797.7958002280837</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>648.8613905668326</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>489.623935561377</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>343.0893775882621</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>206.7262774208804</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>116.2243830587479</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>190.8943609509032</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>429.1585599312504</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8567202439158</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1243.133045466232</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1716.656089020686</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.617368438741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2438.116959914844</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2595.758517561444</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>2595.614164153959</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2466.176277647439</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2273.533277325294</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.46543045971</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1810.313322227967</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1556.075965499766</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1348.224465294233</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1140.464166529279</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.1712248333966</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>668.684674853563</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>566.0176683893006</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>465.5542077549808</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>366.1138932051437</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>245.860689527936</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
-        <v>147.0931356938671</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8451091596279</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>439.3376773609109</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>802.4028610618137</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1193.065291913769</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1580.979053872041</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1926.814038044861</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>2205.926923730927</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2330.042605135848</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>2287.661780841449</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>2143.425529616349</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1969.108547133948</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1727.455313207665</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1520.220457949851</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1278.252920860964</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>1097.71300291102</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>924.3700567155631</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627887</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8769,25 +8769,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>87.16935584025424</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928334</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,13 +9875,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928411</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776804</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987297519</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776703</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445197</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,16 +11300,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476834</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23470,7 +23470,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>10.00426342195865</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>126.1942408597504</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,22 +23701,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>121.3553803406517</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>65.66117552569291</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338548</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>29.49452851487257</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24181,13 +24181,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>59.23051435772328</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>36.69444213332827</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,25 +24601,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>107.56624041923</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>228.8277958299579</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>72.01937238501043</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801204</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437412</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389788</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571465</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523567</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550459</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>16.58485164288767</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1289664.377632065</v>
+        <v>1289664.377632064</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1286499.206001248</v>
+        <v>1301130.495151366</v>
       </c>
     </row>
   </sheetData>
@@ -26323,19 +26323,19 @@
         <v>156411.6238950835</v>
       </c>
       <c r="F2" t="n">
-        <v>156411.6238950835</v>
+        <v>156411.6238950834</v>
       </c>
       <c r="G2" t="n">
         <v>156411.6238950835</v>
       </c>
       <c r="H2" t="n">
-        <v>156411.6238950834</v>
+        <v>156411.6238950835</v>
       </c>
       <c r="I2" t="n">
-        <v>156411.6238950834</v>
+        <v>156411.6238950835</v>
       </c>
       <c r="J2" t="n">
-        <v>156411.6238950836</v>
+        <v>156411.6238950835</v>
       </c>
       <c r="K2" t="n">
         <v>162728.8549381079</v>
@@ -26344,16 +26344,16 @@
         <v>164208.3539728567</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728566</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728565</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192592</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284702</v>
+        <v>44162.6053028457</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086667</v>
+        <v>10342.90680086682</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.078090463124681e-09</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>199883.8198755733</v>
+        <v>44162.60530284572</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230242</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="K4" t="n">
-        <v>47468.16806649895</v>
+        <v>47468.16806649888</v>
       </c>
       <c r="L4" t="n">
-        <v>51722.33279362281</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="M4" t="n">
         <v>51722.33279362282</v>
       </c>
       <c r="N4" t="n">
-        <v>51722.33279362283</v>
+        <v>51722.33279362279</v>
       </c>
       <c r="O4" t="n">
-        <v>51722.33279362269</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="P4" t="n">
-        <v>30134.53761950704</v>
+        <v>51722.33279362282</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340947</v>
@@ -26482,34 +26482,34 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>101591.2743431396</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-683109.3806269234</v>
+        <v>-683109.3806269235</v>
       </c>
       <c r="C6" t="n">
-        <v>-93141.50141237906</v>
+        <v>-93141.50141237899</v>
       </c>
       <c r="D6" t="n">
-        <v>-93141.50141237896</v>
+        <v>-93141.50141237902</v>
       </c>
       <c r="E6" t="n">
-        <v>-490039.2840828314</v>
+        <v>-490136.7432088036</v>
       </c>
       <c r="F6" t="n">
-        <v>35120.7523940645</v>
+        <v>35023.29326809235</v>
       </c>
       <c r="G6" t="n">
-        <v>35120.75239406455</v>
+        <v>35023.29326809234</v>
       </c>
       <c r="H6" t="n">
-        <v>35120.75239406443</v>
+        <v>35023.29326809234</v>
       </c>
       <c r="I6" t="n">
-        <v>35120.75239406442</v>
+        <v>35023.29326809234</v>
       </c>
       <c r="J6" t="n">
-        <v>-141302.4667985274</v>
+        <v>-141399.9259245006</v>
       </c>
       <c r="K6" t="n">
-        <v>-25530.12696146086</v>
+        <v>-25548.62069939382</v>
       </c>
       <c r="L6" t="n">
-        <v>4428.00855834184</v>
+        <v>4428.008558341695</v>
       </c>
       <c r="M6" t="n">
-        <v>-120030.0998746287</v>
+        <v>-120030.0998746286</v>
       </c>
       <c r="N6" t="n">
-        <v>14770.91535920835</v>
+        <v>14770.91535920836</v>
       </c>
       <c r="O6" t="n">
-        <v>14770.91535920734</v>
+        <v>14770.91535920852</v>
       </c>
       <c r="P6" t="n">
-        <v>-167401.2778653632</v>
+        <v>-29391.6899436372</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054540987</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541018</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545557</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108334</v>
+        <v>12.92863350108352</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>34.04650311750937</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,10 +26981,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-6.002502026105506e-14</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26996,10 +26996,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>259.3942951391965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>17.17085798809291</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>185.0898029189064</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>126.5750719263281</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>141.9757853575697</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>379.1423696130915</v>
       </c>
       <c r="G5" t="n">
-        <v>339.5382092338684</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,7 +27673,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>103.0063894090028</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>133.8838474515018</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>191.0869681492219</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>333.4717049787902</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>35.75885303183037</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>151.4836555134484</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,7 +31282,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31355,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32640,10 +32640,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32877,10 +32877,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104635</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361476</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263746</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337657</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443623</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041496</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565529</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927197</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647503</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446482</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562947</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386729</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127076</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358992</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855534</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361503</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990348</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298638</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263755</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235694</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337683</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336906</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892257</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0816769579135183</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624592</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35489,25 +35489,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35726,13 +35726,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35741,7 +35741,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>294.2627707717789</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187306</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221192</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349771</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953152</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005173</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504654</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N27" t="n">
-        <v>333.194573398012</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092045</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209228</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412286</v>
+        <v>67.71102679412265</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584679</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084859</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.480134434161</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491602</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403581</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043209</v>
+        <v>94.42895660043187</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408113</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502055</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349123</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980137</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.363702241109</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091955</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520626</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595514</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095695</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086134</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352446</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502438</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414416</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359025</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
